--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022BCC9D-9BF2-4524-BACB-F5BA0EF04ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA4510-C017-4AF0-85E4-3F5E30333165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27525" yWindow="-5955" windowWidth="21600" windowHeight="11325" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA4510-C017-4AF0-85E4-3F5E30333165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E0C49-22C3-4C4C-A15F-96615FF5A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27525" yWindow="-5955" windowWidth="21600" windowHeight="11325" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1871,13 +1871,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3235,14 +3235,18 @@
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="103"/>
+      <c r="K12" s="103">
+        <v>0.1</v>
+      </c>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="58"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="103"/>
+      <c r="R12" s="103">
+        <v>0.1</v>
+      </c>
       <c r="S12" s="56"/>
       <c r="T12" s="57"/>
       <c r="U12" s="58"/>
@@ -3671,7 +3675,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3898,7 +3902,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E21" s="49">
         <v>1</v>
@@ -3917,7 +3921,9 @@
       <c r="Q21" s="109">
         <v>2</v>
       </c>
-      <c r="R21" s="108"/>
+      <c r="R21" s="108">
+        <v>4</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -3975,7 +3981,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
@@ -3992,7 +3998,9 @@
       <c r="O22" s="59"/>
       <c r="P22" s="88"/>
       <c r="Q22" s="109"/>
-      <c r="R22" s="116"/>
+      <c r="R22" s="116">
+        <v>2</v>
+      </c>
       <c r="S22" s="56"/>
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
@@ -4050,7 +4058,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -4067,7 +4075,9 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="81"/>
-      <c r="R23" s="116"/>
+      <c r="R23" s="116">
+        <v>2</v>
+      </c>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
@@ -5658,7 +5668,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>8</v>
+        <v>16.2</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5680,7 +5690,7 @@
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5708,7 +5718,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5956,7 +5966,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -5990,7 +6000,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E0C49-22C3-4C4C-A15F-96615FF5A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB81D2F-E0B8-4B7D-A7E3-CBB3DC50671B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="-5955" windowWidth="21600" windowHeight="11325" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Nr.</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>MindList</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aufgaben auch nach neuladen anzeigen können</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1880,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2384,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2395,7 +2398,13 @@
     <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
     <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="7" max="10" width="2.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="2.19921875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="2.19921875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
@@ -3675,7 +3684,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>16</v>
+        <v>24.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4058,7 +4067,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -4082,7 +4091,9 @@
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
       <c r="V23" s="59"/>
-      <c r="W23" s="120"/>
+      <c r="W23" s="120">
+        <v>2</v>
+      </c>
       <c r="X23" s="81"/>
       <c r="Y23" s="116"/>
       <c r="Z23" s="56"/>
@@ -4135,7 +4146,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="49">
         <v>2</v>
@@ -4157,7 +4168,9 @@
       <c r="T24" s="57"/>
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
-      <c r="W24" s="107"/>
+      <c r="W24" s="107">
+        <v>1</v>
+      </c>
       <c r="X24" s="109"/>
       <c r="Y24" s="116"/>
       <c r="Z24" s="56"/>
@@ -4660,7 +4673,7 @@
       </c>
       <c r="D31" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E31" s="49">
         <v>1</v>
@@ -4682,7 +4695,9 @@
       <c r="T31" s="57"/>
       <c r="U31" s="68"/>
       <c r="V31" s="69"/>
-      <c r="W31" s="109"/>
+      <c r="W31" s="109">
+        <v>1.5</v>
+      </c>
       <c r="X31" s="109"/>
       <c r="Y31" s="116"/>
       <c r="Z31" s="56"/>
@@ -4727,11 +4742,13 @@
       <c r="A32" s="12">
         <v>314</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="C32" s="48"/>
       <c r="D32" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
@@ -4751,7 +4768,9 @@
       <c r="T32" s="57"/>
       <c r="U32" s="68"/>
       <c r="V32" s="69"/>
-      <c r="W32" s="54"/>
+      <c r="W32" s="54">
+        <v>4</v>
+      </c>
       <c r="X32" s="54"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="56"/>
@@ -5668,7 +5687,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>16.2</v>
+        <v>24.7</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5738,7 +5757,7 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
@@ -6000,7 +6019,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>16</v>
+        <v>24.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB81D2F-E0B8-4B7D-A7E3-CBB3DC50671B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA4EF2-1C4F-4830-97C6-E204DD5C519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1880,7 +1880,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2387,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="49">
         <v>2</v>
@@ -4171,7 +4171,9 @@
       <c r="W24" s="107">
         <v>1</v>
       </c>
-      <c r="X24" s="109"/>
+      <c r="X24" s="109">
+        <v>4</v>
+      </c>
       <c r="Y24" s="116"/>
       <c r="Z24" s="56"/>
       <c r="AA24" s="57"/>
@@ -4223,7 +4225,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="49">
         <v>2</v>
@@ -4246,7 +4248,9 @@
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
       <c r="W25" s="109"/>
-      <c r="X25" s="107"/>
+      <c r="X25" s="107">
+        <v>4</v>
+      </c>
       <c r="Y25" s="116"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
@@ -5687,7 +5691,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>24.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5761,7 +5765,7 @@
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
@@ -6019,7 +6023,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA4EF2-1C4F-4830-97C6-E204DD5C519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D63497-428D-4FDE-9DD8-FC06348F8D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1880,7 +1880,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2387,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E24" s="49">
         <v>2</v>
@@ -4174,7 +4174,9 @@
       <c r="X24" s="109">
         <v>4</v>
       </c>
-      <c r="Y24" s="116"/>
+      <c r="Y24" s="116">
+        <v>4</v>
+      </c>
       <c r="Z24" s="56"/>
       <c r="AA24" s="57"/>
       <c r="AB24" s="98"/>
@@ -4225,7 +4227,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="49">
         <v>2</v>
@@ -4251,7 +4253,9 @@
       <c r="X25" s="107">
         <v>4</v>
       </c>
-      <c r="Y25" s="116"/>
+      <c r="Y25" s="116">
+        <v>4</v>
+      </c>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
       <c r="AB25" s="98"/>
@@ -5691,7 +5695,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>32.700000000000003</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5769,7 +5773,7 @@
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -6023,7 +6027,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D63497-428D-4FDE-9DD8-FC06348F8D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4920F-1A33-42ED-8974-C4B2514640D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5640" windowWidth="38640" windowHeight="21240" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1874,13 +1874,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.5</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2387,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2400,11 +2400,13 @@
     <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
     <col min="7" max="10" width="2.19921875" style="5" customWidth="1"/>
     <col min="11" max="11" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="2.19921875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="2.19921875" style="5" customWidth="1"/>
+    <col min="17" max="18" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="2.19921875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="23" max="25" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="2.19921875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
@@ -2995,7 +2997,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0.2</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3155,7 +3157,7 @@
       </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
@@ -3165,7 +3167,9 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="110"/>
+      <c r="K11" s="110">
+        <v>0.1</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="57" t="s">
         <v>5</v>
@@ -3173,20 +3177,32 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="111"/>
+      <c r="Q11" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="111">
+        <v>0.1</v>
+      </c>
       <c r="S11" s="56"/>
       <c r="T11" s="57" t="s">
         <v>5</v>
       </c>
       <c r="U11" s="58"/>
       <c r="V11" s="59"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="111"/>
+      <c r="W11" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="X11" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="Y11" s="111">
+        <v>0.1</v>
+      </c>
       <c r="Z11" s="56"/>
       <c r="AA11" s="57"/>
-      <c r="AB11" s="112"/>
+      <c r="AB11" s="112">
+        <v>0.1</v>
+      </c>
       <c r="AC11" s="110"/>
       <c r="AD11" s="110"/>
       <c r="AE11" s="59"/>
@@ -3684,7 +3700,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4381,7 +4397,7 @@
       </c>
       <c r="D27" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27" s="49">
         <v>3</v>
@@ -4408,7 +4424,9 @@
       <c r="Y27" s="108"/>
       <c r="Z27" s="56"/>
       <c r="AA27" s="57"/>
-      <c r="AB27" s="113"/>
+      <c r="AB27" s="113">
+        <v>8</v>
+      </c>
       <c r="AC27" s="81"/>
       <c r="AD27" s="109"/>
       <c r="AE27" s="88"/>
@@ -5695,7 +5713,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>40.700000000000003</v>
+        <v>49.4</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5717,7 +5735,7 @@
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5741,11 +5759,11 @@
       </c>
       <c r="Q45" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5765,15 +5783,15 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5785,7 +5803,7 @@
       </c>
       <c r="AB45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
@@ -5993,7 +6011,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0.2</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -6027,7 +6045,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4920F-1A33-42ED-8974-C4B2514640D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CF8B5-7860-4028-93C2-994CCC5EBC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5640" windowWidth="38640" windowHeight="21240" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,13 +1874,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.5</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2388,7 +2388,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2405,8 +2405,8 @@
     <col min="19" max="22" width="2.19921875" style="5" customWidth="1"/>
     <col min="23" max="25" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="2.19921875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="28" max="29" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0.7</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
@@ -3203,7 +3203,9 @@
       <c r="AB11" s="112">
         <v>0.1</v>
       </c>
-      <c r="AC11" s="110"/>
+      <c r="AC11" s="110">
+        <v>0.1</v>
+      </c>
       <c r="AD11" s="110"/>
       <c r="AE11" s="59"/>
       <c r="AF11" s="89"/>
@@ -3700,7 +3702,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4397,7 +4399,7 @@
       </c>
       <c r="D27" s="80">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E27" s="49">
         <v>3</v>
@@ -4427,7 +4429,9 @@
       <c r="AB27" s="113">
         <v>8</v>
       </c>
-      <c r="AC27" s="81"/>
+      <c r="AC27" s="81">
+        <v>8</v>
+      </c>
       <c r="AD27" s="109"/>
       <c r="AE27" s="88"/>
       <c r="AF27" s="89"/>
@@ -5713,7 +5717,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>49.4</v>
+        <v>57.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD45" s="38">
         <f t="shared" si="4"/>
@@ -6011,7 +6015,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -6045,7 +6049,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Daniel_Zeitplanung.xlsx
+++ b/documents/Daniel_Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todolist\app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CF8B5-7860-4028-93C2-994CCC5EBC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC9145-06D4-48C4-B27F-275BE321796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5640" windowWidth="38640" windowHeight="21240" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5670" windowWidth="38640" windowHeight="21240" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Nr.</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Aufgaben auch nach neuladen anzeigen können</t>
+  </si>
+  <si>
+    <t>Für Präsentation vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1809,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -1815,7 +1818,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,22 +1877,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.5</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,7 +2391,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AU26" sqref="AU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2405,8 +2408,10 @@
     <col min="19" max="22" width="2.19921875" style="5" customWidth="1"/>
     <col min="23" max="25" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="2.19921875" style="5" customWidth="1"/>
-    <col min="28" max="29" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="28" max="30" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="52" width="2.19921875" style="5" customWidth="1"/>
+    <col min="53" max="53" width="3.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
@@ -2997,7 +3002,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>1</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3157,7 +3162,7 @@
       </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0.79999999999999993</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
@@ -3206,7 +3211,9 @@
       <c r="AC11" s="110">
         <v>0.1</v>
       </c>
-      <c r="AD11" s="110"/>
+      <c r="AD11" s="110">
+        <v>0.1</v>
+      </c>
       <c r="AE11" s="59"/>
       <c r="AF11" s="89"/>
       <c r="AG11" s="56"/>
@@ -3229,7 +3236,9 @@
       <c r="AX11" s="59"/>
       <c r="AY11" s="59"/>
       <c r="AZ11" s="59"/>
-      <c r="BA11" s="111"/>
+      <c r="BA11" s="111">
+        <v>0.1</v>
+      </c>
       <c r="BB11" s="56"/>
       <c r="BC11" s="57"/>
       <c r="BD11" s="58"/>
@@ -3252,7 +3261,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3308,7 +3317,9 @@
       <c r="AX12" s="59"/>
       <c r="AY12" s="59"/>
       <c r="AZ12" s="59"/>
-      <c r="BA12" s="55"/>
+      <c r="BA12" s="104">
+        <v>1</v>
+      </c>
       <c r="BB12" s="56"/>
       <c r="BC12" s="57"/>
       <c r="BD12" s="58"/>
@@ -3409,7 +3420,7 @@
       </c>
       <c r="D14" s="41">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="30"/>
@@ -3482,7 +3493,7 @@
       </c>
       <c r="D15" s="80">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="49">
         <v>1</v>
@@ -3492,7 +3503,9 @@
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="105"/>
+      <c r="K15" s="105">
+        <v>4</v>
+      </c>
       <c r="L15" s="56"/>
       <c r="M15" s="57"/>
       <c r="N15" s="52"/>
@@ -3557,7 +3570,7 @@
       </c>
       <c r="D16" s="80">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="49">
         <v>2</v>
@@ -3567,7 +3580,9 @@
       <c r="H16" s="59"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="106"/>
+      <c r="K16" s="106">
+        <v>4</v>
+      </c>
       <c r="L16" s="56"/>
       <c r="M16" s="57"/>
       <c r="N16" s="58"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="C18" s="40">
         <f>SUM(C19:C33)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>56.5</v>
+        <v>61.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4164,7 +4179,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" s="49">
         <v>2</v>
@@ -4199,7 +4214,9 @@
       <c r="AA24" s="57"/>
       <c r="AB24" s="98"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="54"/>
+      <c r="AD24" s="54">
+        <v>2</v>
+      </c>
       <c r="AE24" s="88"/>
       <c r="AF24" s="89"/>
       <c r="AG24" s="56"/>
@@ -4399,7 +4416,7 @@
       </c>
       <c r="D27" s="80">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" s="49">
         <v>3</v>
@@ -4432,7 +4449,9 @@
       <c r="AC27" s="81">
         <v>8</v>
       </c>
-      <c r="AD27" s="109"/>
+      <c r="AD27" s="109">
+        <v>2</v>
+      </c>
       <c r="AE27" s="88"/>
       <c r="AF27" s="89"/>
       <c r="AG27" s="56"/>
@@ -4703,7 +4722,7 @@
       </c>
       <c r="D31" s="80">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E31" s="49">
         <v>1</v>
@@ -4757,7 +4776,9 @@
       <c r="AX31" s="69"/>
       <c r="AY31" s="88"/>
       <c r="AZ31" s="88"/>
-      <c r="BA31" s="116"/>
+      <c r="BA31" s="116">
+        <v>1</v>
+      </c>
       <c r="BB31" s="56"/>
       <c r="BC31" s="57"/>
       <c r="BD31" s="68"/>
@@ -4775,7 +4796,9 @@
       <c r="B32" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="48">
+        <v>4</v>
+      </c>
       <c r="D32" s="80">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4923,7 +4946,7 @@
       </c>
       <c r="D34" s="41">
         <f>SUM(D35:D37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="30"/>
@@ -5140,7 +5163,7 @@
       </c>
       <c r="D37" s="80">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="49"/>
       <c r="F37" s="50"/>
@@ -5167,7 +5190,9 @@
       <c r="AA37" s="57"/>
       <c r="AB37" s="98"/>
       <c r="AC37" s="60"/>
-      <c r="AD37" s="107"/>
+      <c r="AD37" s="107">
+        <v>4</v>
+      </c>
       <c r="AE37" s="88"/>
       <c r="AF37" s="89"/>
       <c r="AG37" s="56"/>
@@ -5426,11 +5451,11 @@
       </c>
       <c r="C41" s="40">
         <f>SUM(C42:C44)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="41">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
@@ -5576,7 +5601,7 @@
       </c>
       <c r="D43" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -5626,7 +5651,9 @@
       <c r="AX43" s="59"/>
       <c r="AY43" s="88"/>
       <c r="AZ43" s="88"/>
-      <c r="BA43" s="108"/>
+      <c r="BA43" s="108">
+        <v>3</v>
+      </c>
       <c r="BB43" s="56"/>
       <c r="BC43" s="57"/>
       <c r="BD43" s="58"/>
@@ -5641,11 +5668,15 @@
       <c r="A44" s="12">
         <v>603</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="48">
+        <v>3</v>
+      </c>
       <c r="D44" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -5695,7 +5726,9 @@
       <c r="AX44" s="67"/>
       <c r="AY44" s="88"/>
       <c r="AZ44" s="88"/>
-      <c r="BA44" s="55"/>
+      <c r="BA44" s="108">
+        <v>3</v>
+      </c>
       <c r="BB44" s="56"/>
       <c r="BC44" s="57"/>
       <c r="BD44" s="66"/>
@@ -5713,11 +5746,11 @@
       </c>
       <c r="C45" s="36">
         <f>C41+C38+C34+C18+C14+C9</f>
-        <v>75.5</v>
+        <v>82.5</v>
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>57.5</v>
+        <v>81.7</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5739,7 +5772,7 @@
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5815,7 +5848,7 @@
       </c>
       <c r="AD45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AE45" s="38">
         <f t="shared" si="4"/>
@@ -5907,7 +5940,7 @@
       </c>
       <c r="BA45" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BB45" s="38">
         <f t="shared" si="5"/>
@@ -6015,7 +6048,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>1</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -6032,7 +6065,7 @@
       </c>
       <c r="D4" s="77">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="78"/>
@@ -6045,11 +6078,11 @@
       <c r="B5" s="130"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>56.5</v>
+        <v>61.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -6066,7 +6099,7 @@
       </c>
       <c r="D6" s="77">
         <f>Zeitplanung!D34</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="78"/>
     </row>
@@ -6094,11 +6127,11 @@
       <c r="B8" s="130"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="77">
         <f>Zeitplanung!D41</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="78"/>
     </row>
